--- a/Excelsheets/testdata.xlsx
+++ b/Excelsheets/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -40,13 +40,25 @@
     <t>Browser Name</t>
   </si>
   <si>
-    <t>saikrishna.v225@gmail.com</t>
-  </si>
-  <si>
     <t>sai@12345</t>
   </si>
   <si>
     <t>https://go-testing-v2.vdezi.com/login</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>897456</t>
+  </si>
+  <si>
+    <t>sewoc61492@gridmire.com</t>
+  </si>
+  <si>
+    <t>OTP Validation</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -114,7 +126,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -126,6 +138,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -421,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -478,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -486,7 +499,23 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -494,9 +523,8 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
